--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,6 +433,16 @@
   </si>
   <si>
     <t>Type de technologie AIDC : code à barres, 1D, 2D ou RFID</t>
+  </si>
+  <si>
+    <t>DispositifMedical.EntiteJuridique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteJuridique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteJuridique</t>
   </si>
 </sst>
 </file>
@@ -737,7 +747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -756,7 +766,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.44921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3593,6 +3603,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,6 +443,16 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteJuridique</t>
+  </si>
+  <si>
+    <t>DispositifMedical.NoteLiaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/NoteLiaison
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe NoteLiaison</t>
   </si>
 </sst>
 </file>
@@ -747,7 +757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3703,6 +3713,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DispositifMedical.xlsx
+++ b/ML/ig/StructureDefinition-DispositifMedical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
